--- a/ADBE_Model.xlsx
+++ b/ADBE_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFB929-5B27-46ED-AB58-B6399373E751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10804967-5F44-4987-9DF2-87A4E7261BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13862,6 +13863,46 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="M&amp;A"/>
+      <sheetName val="Management"/>
+      <sheetName val="Markets | Product Lines"/>
+      <sheetName val="Debt Schedule"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="AW1" t="str">
+            <v>Q1 2020</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="188">
+          <cell r="I188" t="str">
+            <v>Notes:</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14978,7 +15019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:FJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="CG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -19167,7 +19208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CA1615"/>
   <sheetViews>
-    <sheetView topLeftCell="H229" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G229" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
